--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,28 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,17 +33,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,29 +81,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,39 +113,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -175,7 +130,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,39 +139,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -277,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +266,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -520,359 +441,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43015</v>
+        <v>43372</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>9855</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>10689</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="4">
-        <v>43288</v>
+        <v>43611</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>9962</v>
+        <v>10889</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D9" si="0">C3-C2</f>
-        <v>107</v>
+        <f t="shared" ref="D3:D5" si="0">C3-C2</f>
+        <v>200</v>
       </c>
       <c r="E3" s="6">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F8" si="1">D3*E3</f>
-        <v>481.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+        <f t="shared" ref="F3:F4" si="1">D3*E3</f>
+        <v>914</v>
+      </c>
+      <c r="G3" s="9">
+        <v>914</v>
+      </c>
+      <c r="H3" s="9">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A4" s="4">
+        <v>43643</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>9989</v>
+        <v>11089</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="E4" s="6">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="1"/>
-        <v>121.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+      <c r="G4" s="9">
+        <v>914</v>
+      </c>
+      <c r="H4" s="9">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
-        <v>43288</v>
+        <v>43691</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>10189</v>
+        <v>11189</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E5" s="6">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D5*E5</f>
+        <v>449</v>
+      </c>
+      <c r="G5" s="9">
+        <v>449</v>
+      </c>
+      <c r="H5" s="9">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>43372</v>
+        <v>43725</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>10689</v>
+        <v>11289</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f>C6-C5</f>
+        <v>100</v>
       </c>
       <c r="E6" s="6">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43611</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10889</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43643</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>11089</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>914</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43691</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>11189</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E9" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f>D6*E6</f>
         <v>449</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>43691</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="19" t="s">
+      <c r="G6" s="9">
+        <v>449</v>
+      </c>
+      <c r="H6" s="9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9">
+        <f>SUM(G3:G6)</f>
+        <v>2726</v>
+      </c>
+      <c r="H7" s="9">
+        <f>SUM(H3:H6)</f>
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <f>SUM(H7,-G7)</f>
         <v>8</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43725</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>11289</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C9</f>
-        <v>100</v>
-      </c>
-      <c r="E11" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -882,12 +660,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -896,12 +674,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -441,17 +443,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
@@ -465,7 +467,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -491,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43372</v>
       </c>
@@ -507,7 +509,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43611</v>
       </c>
@@ -535,7 +537,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43643</v>
       </c>
@@ -563,7 +565,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43691</v>
       </c>
@@ -591,7 +593,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43725</v>
       </c>
@@ -619,36 +621,64 @@
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43969</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>11389</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C6</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7*E7</f>
+        <v>449</v>
       </c>
       <c r="G7" s="9">
-        <f>SUM(G3:G6)</f>
-        <v>2726</v>
+        <v>449</v>
       </c>
       <c r="H7" s="9">
-        <f>SUM(H3:H6)</f>
-        <v>2734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(G3:G7)</f>
+        <v>3175</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUM(H3:H7)</f>
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <f>SUM(H7,-G7)</f>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <f>SUM(H8,-G8)</f>
         <v>8</v>
       </c>
     </row>
@@ -660,12 +690,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -674,12 +704,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,21 +650,31 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
+      <c r="A8" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>11489</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C7</f>
+        <v>100</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>449</v>
       </c>
       <c r="G8" s="9">
-        <f>SUM(G3:G7)</f>
-        <v>3175</v>
+        <v>449</v>
       </c>
       <c r="H8" s="9">
-        <f>SUM(H3:H7)</f>
-        <v>3183</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,14 +682,32 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9">
+        <f>SUM(G3:G8)</f>
+        <v>3624</v>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM(H3:H8)</f>
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
-        <f>SUM(H8,-G8)</f>
-        <v>8</v>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <f>SUM(H9,-G9)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,21 +678,31 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
+      <c r="A9" s="4">
+        <v>44036</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11789</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9-C8</f>
+        <v>300</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9*E9</f>
+        <v>1413</v>
       </c>
       <c r="G9" s="9">
-        <f>SUM(G3:G8)</f>
-        <v>3624</v>
+        <v>1413</v>
       </c>
       <c r="H9" s="9">
-        <f>SUM(H3:H8)</f>
-        <v>3624</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -700,13 +710,31 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(G3:G9)</f>
+        <v>5037</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(H3:H9)</f>
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9">
-        <f>SUM(H9,-G9)</f>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -447,10 +447,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -706,21 +706,31 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
+      <c r="A10" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>11832</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C9</f>
+        <v>43</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f>D10*E10</f>
+        <v>202.53</v>
       </c>
       <c r="G10" s="9">
-        <f>SUM(G3:G9)</f>
-        <v>5037</v>
+        <v>202.53</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(H3:H9)</f>
-        <v>5037</v>
+        <v>202.53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -728,13 +738,31 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9">
+        <f>SUM(G3:G10)</f>
+        <v>5239.53</v>
+      </c>
+      <c r="H11" s="9">
+        <f>SUM(H3:H10)</f>
+        <v>5239.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9">
-        <f>SUM(H10,-G10)</f>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <f>SUM(H11,-G11)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т2</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -583,7 +586,7 @@
         <v>4.49</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" ref="F5:F10" si="2">D5*E5</f>
         <v>449</v>
       </c>
       <c r="G5" s="9">
@@ -611,7 +614,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="G6" s="9">
@@ -639,7 +642,7 @@
         <v>4.49</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="G7" s="9">
@@ -667,7 +670,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>449</v>
       </c>
       <c r="G8" s="9">
@@ -695,7 +698,7 @@
         <v>4.71</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>1413</v>
       </c>
       <c r="G9" s="9">
@@ -723,7 +726,7 @@
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>202.53</v>
       </c>
       <c r="G10" s="9">
@@ -734,42 +737,121 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="4">
+        <v>44074</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9">
-        <f>SUM(G3:G10)</f>
-        <v>5239.53</v>
-      </c>
-      <c r="H11" s="9">
-        <f>SUM(H3:H10)</f>
-        <v>5239.53</v>
-      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44103</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3">
+        <v>150</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13:F14" si="3">D13*E13</f>
+        <v>706.5</v>
+      </c>
+      <c r="G13" s="9">
+        <f>SUM(F13,F14)</f>
+        <v>885</v>
+      </c>
+      <c r="H13" s="9">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="3"/>
+        <v>178.5</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="9">
+        <f>SUM(G3:G14)</f>
+        <v>6124.53</v>
+      </c>
+      <c r="H15" s="9">
+        <f>SUM(H3:H14)</f>
+        <v>6124.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9">
-        <f>SUM(H11,-G11)</f>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
+        <f>SUM(H15,-G15)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Т2</t>
+  </si>
+  <si>
+    <t>новый</t>
+  </si>
+  <si>
+    <t>счет</t>
   </si>
 </sst>
 </file>
@@ -450,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -746,11 +752,21 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -760,11 +776,21 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -774,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3">
         <v>150</v>
@@ -800,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3">
         <v>70</v>
@@ -816,35 +842,86 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
+      <c r="A15" s="4">
+        <v>44153</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>500</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(C15,-C13)</f>
+        <v>350</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15:F16" si="4">D15*E15</f>
+        <v>1648.5</v>
       </c>
       <c r="G15" s="9">
-        <f>SUM(G3:G14)</f>
-        <v>6124.53</v>
+        <f>SUM(F15,F16)</f>
+        <v>1852.5</v>
       </c>
       <c r="H15" s="9">
-        <f>SUM(H3:H14)</f>
-        <v>6124.53</v>
+        <v>1852.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>150</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C14)</f>
+        <v>80</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9">
+        <f>SUM(G3:G16)</f>
+        <v>7977.03</v>
+      </c>
+      <c r="H17" s="9">
+        <f>SUM(H3:H16)</f>
+        <v>7977.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9">
-        <f>SUM(H15,-G15)</f>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <f>SUM(H17,-G17)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -893,35 +893,86 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
+      <c r="A17" s="4">
+        <v>44341</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>660</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C15)</f>
+        <v>160</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17:F18" si="5">D17*E17</f>
+        <v>753.6</v>
+      </c>
+      <c r="G17" s="9">
+        <f>SUM(F17,F18)</f>
+        <v>830.1</v>
+      </c>
+      <c r="H17" s="9">
+        <v>830.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>180</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C16)</f>
+        <v>30</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="5"/>
+        <v>76.5</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G19" s="9">
         <f>SUM(G3:G16)</f>
         <v>7977.03</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H19" s="9">
         <f>SUM(H3:H16)</f>
         <v>7977.03</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9">
-        <f>SUM(H17,-G17)</f>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
+        <f>SUM(H19,-G19)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,35 +944,86 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
-        <v>9</v>
+      <c r="A19" s="4">
+        <v>44375</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>970</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C17)</f>
+        <v>310</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:F20" si="6">D19*E19</f>
+        <v>1460.1</v>
       </c>
       <c r="G19" s="9">
-        <f>SUM(G3:G16)</f>
-        <v>7977.03</v>
+        <f>SUM(F19,F20)</f>
+        <v>1689.6</v>
       </c>
       <c r="H19" s="9">
-        <f>SUM(H3:H16)</f>
-        <v>7977.03</v>
+        <v>1689.6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>270</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(C20,-C18)</f>
+        <v>90</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="6"/>
+        <v>229.49999999999997</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="9">
+        <f>SUM(G3:G20)</f>
+        <v>10496.73</v>
+      </c>
+      <c r="H21" s="9">
+        <f>SUM(H3:H20)</f>
+        <v>10496.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9">
-        <f>SUM(H19,-G19)</f>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9">
+        <f>SUM(H21,-G21)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -852,14 +852,14 @@
         <v>500</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" ref="D15:D22" si="4">SUM(C15,-C13)</f>
         <v>350</v>
       </c>
       <c r="E15" s="6">
         <v>4.71</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15:F16" si="4">D15*E15</f>
+        <f t="shared" ref="F15:F16" si="5">D15*E15</f>
         <v>1648.5</v>
       </c>
       <c r="G15" s="9">
@@ -879,14 +879,14 @@
         <v>150</v>
       </c>
       <c r="D16" s="3">
-        <f>SUM(C16,-C14)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="E16" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
       <c r="G16" s="9"/>
@@ -903,14 +903,14 @@
         <v>660</v>
       </c>
       <c r="D17" s="3">
-        <f>SUM(C17,-C15)</f>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="E17" s="6">
         <v>4.71</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" ref="F17:F18" si="5">D17*E17</f>
+        <f t="shared" ref="F17:F18" si="6">D17*E17</f>
         <v>753.6</v>
       </c>
       <c r="G17" s="9">
@@ -930,14 +930,14 @@
         <v>180</v>
       </c>
       <c r="D18" s="3">
-        <f>SUM(C18,-C16)</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="E18" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>76.5</v>
       </c>
       <c r="G18" s="9"/>
@@ -954,14 +954,14 @@
         <v>970</v>
       </c>
       <c r="D19" s="3">
-        <f>SUM(C19,-C17)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="E19" s="6">
         <v>4.71</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F20" si="6">D19*E19</f>
+        <f t="shared" ref="F19:F20" si="7">D19*E19</f>
         <v>1460.1</v>
       </c>
       <c r="G19" s="9">
@@ -981,49 +981,100 @@
         <v>270</v>
       </c>
       <c r="D20" s="3">
-        <f>SUM(C20,-C18)</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="E20" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>229.49999999999997</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6" t="s">
+      <c r="A21" s="4">
+        <v>44406</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1070</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" ref="F21:F22" si="8">D21*E21</f>
+        <v>496</v>
+      </c>
+      <c r="G21" s="9">
+        <f>SUM(F21,F22)</f>
+        <v>576.4</v>
+      </c>
+      <c r="H21" s="9">
+        <v>576.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>300</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="8"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G23" s="9">
         <f>SUM(G3:G20)</f>
         <v>10496.73</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H23" s="9">
         <f>SUM(H3:H20)</f>
         <v>10496.73</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9">
-        <f>SUM(H21,-G21)</f>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9">
+        <f>SUM(H23,-G23)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1046,35 +1046,86 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6" t="s">
+      <c r="A23" s="4">
+        <v>44466</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1170</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:D24" si="9">SUM(C23,-C21)</f>
+        <v>100</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" ref="F23:F24" si="10">D23*E23</f>
+        <v>496</v>
+      </c>
+      <c r="G23" s="9">
+        <f>SUM(F23,F24)</f>
+        <v>576.4</v>
+      </c>
+      <c r="H23" s="9">
+        <v>576.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>330</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="10"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G25" s="9">
         <f>SUM(G3:G20)</f>
         <v>10496.73</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H25" s="9">
         <f>SUM(H3:H20)</f>
         <v>10496.73</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9">
-        <f>SUM(H23,-G23)</f>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <f>SUM(H25,-G25)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1097,35 +1097,86 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6" t="s">
+      <c r="A25" s="4">
+        <v>44501</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25:D26" si="11">SUM(C25,-C23)</f>
+        <v>230</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" ref="F25:F26" si="12">D25*E25</f>
+        <v>1140.8</v>
+      </c>
+      <c r="G25" s="9">
+        <f>SUM(F25,F26)</f>
+        <v>1355.2</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1355.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3">
+        <v>410</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="12"/>
+        <v>214.4</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G27" s="9">
         <f>SUM(G3:G20)</f>
         <v>10496.73</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H27" s="9">
         <f>SUM(H3:H20)</f>
         <v>10496.73</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9">
-        <f>SUM(H25,-G25)</f>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9">
+        <f>SUM(H27,-G27)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/146ee.xlsx
+++ b/sputnik/personal/ee/146ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -91,12 +91,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -149,6 +155,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,10 +465,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1148,35 +1157,86 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6" t="s">
-        <v>9</v>
+      <c r="A27" s="10">
+        <v>44530</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1620</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" ref="D27:D28" si="13">SUM(C27,-C25)</f>
+        <v>220</v>
+      </c>
+      <c r="E27" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" ref="F27:F28" si="14">D27*E27</f>
+        <v>1091.2</v>
       </c>
       <c r="G27" s="9">
-        <f>SUM(G3:G20)</f>
-        <v>10496.73</v>
+        <f>SUM(F27,F28)</f>
+        <v>1332.4</v>
       </c>
       <c r="H27" s="9">
-        <f>SUM(H3:H20)</f>
-        <v>10496.73</v>
+        <v>1332.4</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6" t="s">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3">
+        <v>500</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="14"/>
+        <v>241.20000000000002</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="9">
+        <f>SUM(G3:G26)</f>
+        <v>13004.73</v>
+      </c>
+      <c r="H29" s="9">
+        <f>SUM(H3:H26)</f>
+        <v>13004.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9">
-        <f>SUM(H27,-G27)</f>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <f>SUM(H29,-G29)</f>
         <v>0</v>
       </c>
     </row>
